--- a/evaluación.xlsx
+++ b/evaluación.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="149">
   <si>
     <t xml:space="preserve">PLAN EVALUACIÓN RESULTADOS APRENDIZAJE</t>
   </si>
@@ -437,7 +437,10 @@
     <t xml:space="preserve">Realización de acción al pulsar sobre la notificación</t>
   </si>
   <si>
-    <t xml:space="preserve">Creación de varios cuadros de diálogo (alertas) para confirmar acciones.</t>
+    <t xml:space="preserve">Notificaciones desde un servicio (firebase)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messaging</t>
   </si>
   <si>
     <t xml:space="preserve">A elegir entre una de las siguientes opciones de investigación</t>
@@ -505,7 +508,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="dd\-mmm"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,6 +598,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -679,40 +690,28 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color theme="1"/>
-      </left>
+      <left style="medium"/>
       <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
+      <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
+      <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
+      <right style="medium"/>
+      <top style="medium"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color theme="1"/>
-      </left>
+      <left style="medium"/>
       <right/>
       <top/>
       <bottom/>
@@ -720,42 +719,30 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
+      <right style="medium"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium">
-        <color theme="1"/>
-      </left>
+      <left style="medium"/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
+      <right style="medium"/>
       <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -874,7 +861,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1015,7 +1002,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1095,6 +1082,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1171,6 +1162,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1200,6 +1195,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2035,7 +2034,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{3A597386-F5D7-4C73-BAEE-59F6F5846321}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{C6B0454F-B12A-411B-B2B3-964D4AB0F055}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -2060,7 +2059,7 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2180,22 +2179,22 @@
         <f aca="false">(IF(I6=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K6" s="35" t="n">
+      <c r="K6" s="55" t="n">
         <v>0.1</v>
       </c>
-      <c r="L6" s="35" t="n">
+      <c r="L6" s="55" t="n">
         <f aca="false">J6*K6</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="58" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="51"/>
@@ -2216,18 +2215,18 @@
         <f aca="false">(IF(I7=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K7" s="35" t="n">
+      <c r="K7" s="55" t="n">
         <v>0.05</v>
       </c>
-      <c r="L7" s="35" t="n">
+      <c r="L7" s="55" t="n">
         <f aca="false">J7*K7</f>
         <v>0.05</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="58" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="59" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="51"/>
@@ -2237,7 +2236,7 @@
       <c r="F8" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="60" t="s">
         <v>58</v>
       </c>
       <c r="H8" s="52" t="s">
@@ -2250,18 +2249,18 @@
         <f aca="false">(IF(I8=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K8" s="35" t="n">
+      <c r="K8" s="55" t="n">
         <v>0.25</v>
       </c>
-      <c r="L8" s="35" t="n">
+      <c r="L8" s="55" t="n">
         <f aca="false">J8*K8</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="58" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="59" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="51"/>
@@ -2282,18 +2281,18 @@
         <f aca="false">(IF(I9=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K9" s="35" t="n">
+      <c r="K9" s="55" t="n">
         <v>0.3</v>
       </c>
-      <c r="L9" s="35" t="n">
+      <c r="L9" s="55" t="n">
         <f aca="false">J9*K9</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="60" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="61" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="51"/>
@@ -2314,18 +2313,18 @@
         <f aca="false">(IF(I10=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K10" s="35" t="n">
+      <c r="K10" s="55" t="n">
         <v>0.3</v>
       </c>
-      <c r="L10" s="35" t="n">
+      <c r="L10" s="55" t="n">
         <f aca="false">J10*K10</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="55"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="61" t="s">
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="62" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="51"/>
@@ -2346,18 +2345,18 @@
         <f aca="false">(IF(I11=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K11" s="35" t="n">
+      <c r="K11" s="55" t="n">
         <v>0.3</v>
       </c>
-      <c r="L11" s="35" t="n">
+      <c r="L11" s="55" t="n">
         <f aca="false">J11*K11</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="55"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="61" t="s">
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="62" t="s">
         <v>66</v>
       </c>
       <c r="D12" s="51" t="s">
@@ -2380,18 +2379,18 @@
         <f aca="false">(IF(I12=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K12" s="35" t="n">
+      <c r="K12" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="L12" s="35" t="n">
+      <c r="L12" s="55" t="n">
         <f aca="false">J12*K12</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="55"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="61" t="s">
+      <c r="A13" s="56"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="62" t="s">
         <v>70</v>
       </c>
       <c r="D13" s="51"/>
@@ -2412,21 +2411,21 @@
         <f aca="false">(IF(I13=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K13" s="35" t="n">
+      <c r="K13" s="55" t="n">
         <v>0.1</v>
       </c>
-      <c r="L13" s="35" t="n">
+      <c r="L13" s="55" t="n">
         <f aca="false">J13*K13</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="55"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="61" t="s">
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="63" t="s">
         <v>73</v>
       </c>
       <c r="E14" s="34" t="s">
@@ -2435,7 +2434,7 @@
       <c r="F14" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="63" t="n">
+      <c r="G14" s="64" t="n">
         <v>303</v>
       </c>
       <c r="H14" s="52" t="s">
@@ -2448,10 +2447,10 @@
         <f aca="false">(IF(I14=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K14" s="35" t="n">
+      <c r="K14" s="55" t="n">
         <v>0.45</v>
       </c>
-      <c r="L14" s="35" t="n">
+      <c r="L14" s="55" t="n">
         <f aca="false">J14*K14</f>
         <v>0.45</v>
       </c>
@@ -2461,9 +2460,9 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="55"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="58" t="s">
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="59" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="51" t="s">
@@ -2488,18 +2487,18 @@
         <f aca="false">(IF(I15=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K15" s="35" t="n">
+      <c r="K15" s="55" t="n">
         <v>0.25</v>
       </c>
-      <c r="L15" s="35" t="n">
+      <c r="L15" s="55" t="n">
         <f aca="false">J15*K15</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="58" t="s">
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="59" t="s">
         <v>76</v>
       </c>
       <c r="D16" s="51" t="s">
@@ -2524,17 +2523,17 @@
         <f aca="false">(IF(I16=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K16" s="35" t="n">
+      <c r="K16" s="55" t="n">
         <v>0.25</v>
       </c>
-      <c r="L16" s="35" t="n">
+      <c r="L16" s="55" t="n">
         <f aca="false">J16*K16</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="55"/>
-      <c r="B17" s="56"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="57"/>
       <c r="C17" s="50" t="s">
         <v>78</v>
       </c>
@@ -2560,19 +2559,19 @@
         <f aca="false">(IF(I17=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K17" s="35" t="n">
+      <c r="K17" s="55" t="n">
         <v>0.25</v>
       </c>
-      <c r="L17" s="35" t="n">
+      <c r="L17" s="55" t="n">
         <f aca="false">J17*K17</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="53.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="57" t="s">
         <v>84</v>
       </c>
       <c r="C18" s="50" t="s">
@@ -2600,10 +2599,10 @@
         <f aca="false">(IF(I18=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K18" s="35" t="n">
+      <c r="K18" s="55" t="n">
         <v>0.5</v>
       </c>
-      <c r="L18" s="35" t="n">
+      <c r="L18" s="55" t="n">
         <f aca="false">J18*K18</f>
         <v>0.5</v>
       </c>
@@ -2638,10 +2637,10 @@
         <f aca="false">(IF(I19=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K19" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="L19" s="35" t="n">
+      <c r="K19" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="55" t="n">
         <f aca="false">J19*K19</f>
         <v>1</v>
       </c>
@@ -2672,10 +2671,10 @@
         <f aca="false">(IF(I20=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K20" s="35" t="n">
+      <c r="K20" s="55" t="n">
         <v>0.2</v>
       </c>
-      <c r="L20" s="35" t="n">
+      <c r="L20" s="55" t="n">
         <f aca="false">J20*K20</f>
         <v>0.2</v>
       </c>
@@ -2710,10 +2709,10 @@
         <f aca="false">(IF(I21=CondicionesGenerales!$C$20,CondicionesGenerales!$B$20,CondicionesGenerales!$B$21))</f>
         <v>1</v>
       </c>
-      <c r="K21" s="35" t="n">
+      <c r="K21" s="55" t="n">
         <v>0.2</v>
       </c>
-      <c r="L21" s="35" t="n">
+      <c r="L21" s="55" t="n">
         <f aca="false">J21*K21</f>
         <v>0.2</v>
       </c>
@@ -2746,7 +2745,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{6C99C4CA-56A6-4E16-B96F-1128FD5A88B0}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{F8185CDE-F0D0-4FC1-8E40-88A847A0D015}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -2759,7 +2758,7 @@
           <xm:sqref>I6:I21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{A08AA138-9941-45BC-8E46-8D36178DB911}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{D9FB46EC-53CA-41FF-A523-64BC1690618D}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -2782,10 +2781,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2795,7 +2794,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.22"/>
   </cols>
@@ -2854,13 +2853,13 @@
       <c r="D5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="65" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="47" t="s">
@@ -2880,104 +2879,107 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="E6" s="67" t="s">
+      <c r="E6" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="67"/>
+      <c r="G6" s="68"/>
       <c r="H6" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="69" t="n">
+      <c r="J6" s="70" t="n">
         <f aca="false">(IF(I6=CondicionesGenerales!$C$21,CondicionesGenerales!$B$21,CondicionesGenerales!$B$20))</f>
         <v>1</v>
       </c>
-      <c r="K6" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="69" t="n">
+      <c r="K6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="70" t="n">
         <f aca="false">J6*K6</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
     </row>
     <row r="8" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="70" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="71" t="s">
+      <c r="D8" s="67"/>
+      <c r="E8" s="72" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="71" t="n">
+      <c r="G8" s="72" t="n">
         <v>99</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="72" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="73" t="s">
+      <c r="D9" s="67"/>
+      <c r="E9" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="73" t="n">
+      <c r="G9" s="74" t="n">
         <v>72</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="68"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3012,7 +3014,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{B2B62658-9519-458C-835F-406F81FF00AA}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{F0906FA5-11CB-4D57-BCDF-1CD4A3BF70D3}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -3038,7 +3040,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3048,7 +3050,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.22"/>
   </cols>
@@ -3107,16 +3109,16 @@
       <c r="D5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="76" t="s">
         <v>43</v>
       </c>
       <c r="I5" s="32" t="s">
@@ -3133,130 +3135,129 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="67" t="s">
+      <c r="D6" s="77"/>
+      <c r="E6" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="68" t="s">
+      <c r="F6" s="68"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="69" t="n">
+      <c r="J6" s="70" t="n">
         <f aca="false">(IF(I6=CondicionesGenerales!$C$21,CondicionesGenerales!$B$21,CondicionesGenerales!$B$20))</f>
         <v>1</v>
       </c>
-      <c r="K6" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="69" t="n">
+      <c r="K6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="70" t="n">
         <f aca="false">J6*K6</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="70" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="71" t="s">
+      <c r="D7" s="77"/>
+      <c r="E7" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="71" t="n">
+      <c r="G7" s="72" t="n">
         <v>84</v>
       </c>
       <c r="H7" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="70" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="71" t="s">
+      <c r="D8" s="77"/>
+      <c r="E8" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="67" t="n">
+      <c r="G8" s="68" t="n">
         <v>159</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="70" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="71" t="s">
+      <c r="D9" s="77"/>
+      <c r="E9" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="71" t="n">
+      <c r="G9" s="72" t="n">
         <v>236</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="68"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
     </row>
     <row r="10" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="72" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="73" t="s">
+      <c r="D10" s="77"/>
+      <c r="E10" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="G10" s="73"/>
+      <c r="G10" s="74"/>
       <c r="H10" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="68"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3293,7 +3294,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{1A52605A-6037-471E-8F3E-B8B045DDA339}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{5A8E7D35-A490-4632-9785-9EBF2FF8908D}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -3306,7 +3307,7 @@
           <xm:sqref>C2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{C53C8134-4469-4D92-A411-E37C42A97541}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{59889BEB-6920-482E-B06D-4C9C9799B092}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -3332,7 +3333,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3342,7 +3343,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.22"/>
   </cols>
@@ -3401,13 +3402,13 @@
       <c r="D5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="65" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="47" t="s">
@@ -3427,154 +3428,152 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="65" t="s">
+      <c r="C6" s="66" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="75"/>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="68" t="s">
+      <c r="D6" s="77"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="69" t="n">
+      <c r="J6" s="70" t="n">
         <f aca="false">(IF(I6=CondicionesGenerales!$C$21,CondicionesGenerales!$B$21,CondicionesGenerales!$B$20))</f>
         <v>1</v>
       </c>
-      <c r="K6" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="69" t="n">
+      <c r="K6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="70" t="n">
         <f aca="false">J6*K6</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="55"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="70" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="75"/>
-      <c r="E7" s="77" t="s">
+      <c r="D7" s="77"/>
+      <c r="E7" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="77" t="s">
+      <c r="F7" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="71" t="n">
+      <c r="G7" s="72" t="n">
         <v>43</v>
       </c>
       <c r="H7" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="55"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="70" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="77" t="s">
+      <c r="D8" s="77"/>
+      <c r="E8" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="F8" s="77" t="s">
+      <c r="F8" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="71" t="n">
+      <c r="G8" s="72" t="n">
         <v>82</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="55"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="70" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="77" t="s">
+      <c r="D9" s="77"/>
+      <c r="E9" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="F9" s="77" t="s">
+      <c r="F9" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="71" t="n">
+      <c r="G9" s="72" t="n">
         <v>64</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="68"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="55"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="70" t="s">
+      <c r="A10" s="56"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="D10" s="75"/>
-      <c r="E10" s="77" t="s">
+      <c r="D10" s="77"/>
+      <c r="E10" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="F10" s="77" t="s">
+      <c r="F10" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="71" t="n">
+      <c r="G10" s="72" t="n">
         <v>121</v>
       </c>
       <c r="H10" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="68"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="55"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="72" t="s">
+      <c r="A11" s="56"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="73" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="75"/>
-      <c r="E11" s="77" t="s">
+      <c r="D11" s="77"/>
+      <c r="E11" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="F11" s="77" t="s">
+      <c r="F11" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="73" t="n">
+      <c r="G11" s="74" t="n">
         <v>101</v>
       </c>
       <c r="H11" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="68"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3609,7 +3608,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{9BED64B3-B692-49F4-936B-5EAA8E901F33}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{94477565-CCB6-4387-8F40-118E9FA183E7}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -3622,7 +3621,7 @@
           <xm:sqref>C2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{5064334F-AFD5-4CA0-B513-40639260B751}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{4049B898-4476-4818-8E48-86BA36B63920}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -3648,7 +3647,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3658,7 +3657,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.22"/>
   </cols>
@@ -3717,13 +3716,13 @@
       <c r="D5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="65" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="47" t="s">
@@ -3743,108 +3742,108 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="67" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="68" t="s">
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="78"/>
+      <c r="I6" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="69" t="n">
+      <c r="J6" s="70" t="n">
         <f aca="false">(IF(I6=CondicionesGenerales!$C$21,CondicionesGenerales!$B$21,CondicionesGenerales!$B$20))</f>
         <v>1</v>
       </c>
-      <c r="K6" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="69" t="n">
+      <c r="K6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="70" t="n">
         <f aca="false">J6*K6</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="80" t="s">
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="82" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="71" t="s">
+      <c r="D7" s="67"/>
+      <c r="E7" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="71" t="n">
+      <c r="G7" s="72" t="n">
         <v>25</v>
       </c>
       <c r="H7" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
     </row>
     <row r="8" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="81" t="s">
+      <c r="A8" s="80"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="83" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="71" t="s">
+      <c r="D8" s="67"/>
+      <c r="E8" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="71" t="s">
+      <c r="F8" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="G8" s="71" t="n">
+      <c r="G8" s="72" t="n">
         <v>93</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-    </row>
-    <row r="9" customFormat="false" ht="32.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="78"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+    </row>
+    <row r="9" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="F9" s="73" t="s">
+      <c r="D9" s="67"/>
+      <c r="E9" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="F9" s="74" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="73" t="n">
-        <v>64</v>
+      <c r="G9" s="74" t="n">
+        <v>1</v>
       </c>
       <c r="H9" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="68"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
+        <v>17</v>
+      </c>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3879,7 +3878,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{A028A741-2DA4-4DE9-9188-E17CF8FF683F}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{496E9020-15A0-4660-9DDA-9BB2ECB0CF51}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -3892,7 +3891,7 @@
           <xm:sqref>C2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{CA7F8CB1-A4DC-48CC-8C42-A0D070F00056}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{2F3CB074-87DE-4E1B-A536-CC6C9C10ACD4}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -3928,7 +3927,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="13.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="11.22"/>
   </cols>
@@ -3950,13 +3949,13 @@
         <f aca="false">IF(COUNTIF(I:I,CondicionesGenerales!C20)&gt;0,CondicionesGenerales!C20,CondicionesGenerales!C21)</f>
         <v>No conseguido</v>
       </c>
-      <c r="E2" s="82" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
+      <c r="E2" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="42" t="s">
@@ -3994,13 +3993,13 @@
       <c r="D5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="65" t="s">
         <v>42</v>
       </c>
       <c r="H5" s="47" t="s">
@@ -4020,401 +4019,401 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="78" t="s">
-        <v>133</v>
-      </c>
-      <c r="B6" s="78" t="s">
+      <c r="A6" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="B6" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
+      <c r="C6" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="88"/>
       <c r="H6" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="68" t="s">
+      <c r="I6" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="69" t="n">
+      <c r="J6" s="70" t="n">
         <f aca="false">(IF(I6=CondicionesGenerales!$C$21,CondicionesGenerales!$B$21,CondicionesGenerales!$B$20))</f>
         <v>0</v>
       </c>
-      <c r="K6" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="69" t="n">
+      <c r="K6" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="70" t="n">
         <f aca="false">J6*K6</f>
         <v>0</v>
       </c>
-      <c r="M6" s="86" t="s">
-        <v>136</v>
+      <c r="M6" s="89" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
       <c r="H7" s="52"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="86"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="89"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
       <c r="H8" s="52"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="86"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="89"/>
     </row>
     <row r="9" customFormat="false" ht="103.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="78"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
       <c r="H9" s="52"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="86"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="89"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="83" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="84"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
+      <c r="C11" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
       <c r="H11" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="I11" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="69" t="n">
+      <c r="J11" s="70" t="n">
         <f aca="false">(IF(I11=CondicionesGenerales!$C$21,CondicionesGenerales!$B$21,CondicionesGenerales!$B$20))</f>
         <v>0</v>
       </c>
-      <c r="K11" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="69" t="n">
+      <c r="K11" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="70" t="n">
         <f aca="false">J11*K11</f>
         <v>0</v>
       </c>
-      <c r="M11" s="86" t="s">
-        <v>138</v>
+      <c r="M11" s="89" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
       <c r="H12" s="52"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="86"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="89"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="78"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
       <c r="H13" s="52"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="86"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="89"/>
     </row>
     <row r="14" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
       <c r="H14" s="52"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="86"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="89"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="78" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="78" t="s">
+      <c r="A16" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="83" t="s">
+      <c r="B16" s="80" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="84"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
+      <c r="C16" s="86" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="88"/>
       <c r="H16" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="68" t="s">
+      <c r="I16" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="69" t="n">
+      <c r="J16" s="70" t="n">
         <f aca="false">(IF(I16=CondicionesGenerales!$C$21,CondicionesGenerales!$B$21,CondicionesGenerales!$B$20))</f>
         <v>0</v>
       </c>
-      <c r="K16" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="L16" s="69" t="n">
+      <c r="K16" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="70" t="n">
         <f aca="false">J16*K16</f>
         <v>0</v>
       </c>
-      <c r="M16" s="86" t="s">
-        <v>142</v>
+      <c r="M16" s="89" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="78"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
       <c r="H17" s="52"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="86"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="89"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
       <c r="H18" s="52"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="86"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="89"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="78"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="83"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="93"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="52"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="86"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="89"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="78" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" s="78" t="s">
+      <c r="A21" s="80" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="83" t="s">
+      <c r="B21" s="80" t="s">
         <v>145</v>
       </c>
-      <c r="D21" s="84"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
+      <c r="C21" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="88"/>
       <c r="H21" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="68" t="s">
+      <c r="I21" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="69" t="n">
+      <c r="J21" s="70" t="n">
         <f aca="false">(IF(I21=CondicionesGenerales!$C$21,CondicionesGenerales!$B$21,CondicionesGenerales!$B$20))</f>
         <v>0</v>
       </c>
-      <c r="K21" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="69" t="n">
+      <c r="K21" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="70" t="n">
         <f aca="false">J21*K21</f>
         <v>0</v>
       </c>
-      <c r="M21" s="86" t="s">
-        <v>146</v>
+      <c r="M21" s="89" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="78"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="91"/>
       <c r="H22" s="52"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="86"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="89"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="78"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
+      <c r="A23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="91"/>
       <c r="H23" s="52"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="86"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="89"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="78"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
+      <c r="A24" s="80"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
       <c r="H24" s="52"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="86"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="89"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
+      <c r="A26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
       <c r="H26" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="68" t="s">
+      <c r="I26" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="J26" s="69" t="n">
+      <c r="J26" s="70" t="n">
         <f aca="false">(IF(I26=CondicionesGenerales!$C$21,CondicionesGenerales!$B$21,CondicionesGenerales!$B$20))</f>
         <v>0</v>
       </c>
-      <c r="K26" s="69" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" s="69" t="n">
+      <c r="K26" s="70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="70" t="n">
         <f aca="false">J26*K26</f>
         <v>0</v>
       </c>
-      <c r="M26" s="86" t="s">
-        <v>147</v>
+      <c r="M26" s="89" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="78"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
+      <c r="A27" s="80"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
       <c r="H27" s="52"/>
-      <c r="I27" s="68"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="86"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="89"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="78"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
+      <c r="A28" s="80"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="90"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
       <c r="H28" s="52"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="86"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="89"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="78"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="83"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="90"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
       <c r="H29" s="52"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="86"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="47">
@@ -4487,7 +4486,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{889D34C3-CC33-4829-839B-CA24B3909E50}">
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{38E84B8F-289C-4EFF-8456-608D79274020}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -4500,7 +4499,7 @@
           <xm:sqref>C2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{70F195EC-44D4-45A7-9F9B-8F1A2A8940B1}">
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{70B667E8-BF22-4EED-A5F6-E19A4B193352}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -4513,7 +4512,7 @@
           <xm:sqref>I6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{23D4103B-E4F2-4C1D-ACF6-3135309E3F41}">
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{C64B95A5-3660-4AD0-889D-A19929C62CFD}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -4526,7 +4525,7 @@
           <xm:sqref>I11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{48B2CDB7-4969-44C1-B885-5E28BBC5CE73}">
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{88D3DDD1-65F1-43B5-B063-366E18282DCB}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -4539,7 +4538,7 @@
           <xm:sqref>I16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{E0674F8A-47D3-4C58-BED9-347E373F8DA9}">
+          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{B559A110-21F6-4EE1-AD98-B42B7CC3538B}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
@@ -4552,7 +4551,7 @@
           <xm:sqref>I21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{48B3D094-3F77-4D82-844B-201DB4CB5FF6}">
+          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{D0448C36-7032-4BA5-A888-3262A358DC91}">
             <xm:f>CondicionesGenerales!$C$20</xm:f>
             <x14:dxf>
               <fill>
